--- a/PythonResources/Data/Consumption/Sympheny/post_1569_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1569_coo.xlsx
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>3.977208451465385</v>
+        <v>3.977208451465384</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>4.811991997988361</v>
+        <v>4.81199199798836</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>10.3359707773006</v>
+        <v>10.33597077730059</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>6.758716372296347</v>
+        <v>6.758716372296346</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>0.8744360580538559</v>
+        <v>0.8744360580538558</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>5.863061971043409</v>
+        <v>5.863061971043408</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>2.391975480504622</v>
+        <v>2.391975480504621</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>1.983970772611457</v>
+        <v>1.983970772611456</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>4.692565549733863</v>
+        <v>4.692565549733862</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>8.68454478154778</v>
+        <v>8.684544781547778</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>0.8289719478263216</v>
+        <v>0.8289719478263214</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>6.894027270846291</v>
+        <v>6.89402727084629</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>7.299608281249726</v>
+        <v>7.299608281249725</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>6.774893893630454</v>
+        <v>6.774893893630453</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>7.82824982078706</v>
+        <v>7.828249820787059</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>13.2309851114051</v>
+        <v>13.23098511140509</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>6.455329233074123</v>
+        <v>6.455329233074122</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>4.561152495998115</v>
+        <v>4.561152495998114</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>4.899356474613308</v>
+        <v>4.899356474613307</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>2.052350107351922</v>
+        <v>2.052350107351921</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>7.638574244565438</v>
+        <v>7.638574244565437</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>7.973554441755356</v>
+        <v>7.973554441755355</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>7.209313094238166</v>
+        <v>7.209313094238165</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>2.316401251765021</v>
+        <v>2.31640125176502</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>0.4514935193201221</v>
+        <v>0.451493519320122</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>2899</v>
       </c>
       <c r="B2899">
-        <v>8.60576728635561</v>
+        <v>8.605767286355608</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>50.42199298856848</v>
+        <v>50.42199298856847</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23847,7 +23847,7 @@
         <v>2938</v>
       </c>
       <c r="B2938">
-        <v>6.215831580280071</v>
+        <v>6.21583158028007</v>
       </c>
     </row>
     <row r="2939" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>5.640093524829858</v>
+        <v>5.640093524829857</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24079,7 +24079,7 @@
         <v>2967</v>
       </c>
       <c r="B2967">
-        <v>6.68439355689183</v>
+        <v>6.684393556891829</v>
       </c>
     </row>
     <row r="2968" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>0.8507412645780862</v>
+        <v>0.8507412645780861</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>5.109078109879367</v>
+        <v>5.109078109879366</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>7.185896718249124</v>
+        <v>7.185896718249123</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24479,7 +24479,7 @@
         <v>3017</v>
       </c>
       <c r="B3017">
-        <v>18.98569871945541</v>
+        <v>18.9856987194554</v>
       </c>
     </row>
     <row r="3018" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>28.44380450754981</v>
+        <v>28.4438045075498</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>6.923627445751087</v>
+        <v>6.923627445751086</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>17.64205592850474</v>
+        <v>17.64205592850473</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>6.208299654586474</v>
+        <v>6.208299654586473</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>15.19057530431032</v>
+        <v>15.19057530431031</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>15.17744572177829</v>
+        <v>15.17744572177828</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>32.10417385911841</v>
+        <v>32.1041738591184</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>39.39314366166473</v>
+        <v>39.39314366166472</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25655,7 +25655,7 @@
         <v>3164</v>
       </c>
       <c r="B3164">
-        <v>40.33331555369033</v>
+        <v>40.33331555369032</v>
       </c>
     </row>
     <row r="3165" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>55.22659959638257</v>
+        <v>55.22659959638256</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -26431,7 +26431,7 @@
         <v>3261</v>
       </c>
       <c r="B3261">
-        <v>16.79091901802446</v>
+        <v>16.79091901802445</v>
       </c>
     </row>
     <row r="3262" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>29.83756244611157</v>
+        <v>29.83756244611156</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>0.7427123490171277</v>
+        <v>0.7427123490171276</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>5.140583246535462</v>
+        <v>5.140583246535461</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>7.512963997395185</v>
+        <v>7.512963997395184</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>7.921798096327762</v>
+        <v>7.921798096327761</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>9.449460192453891</v>
+        <v>9.449460192453889</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>18.34261293932082</v>
+        <v>18.34261293932081</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>19.81476738072449</v>
+        <v>19.81476738072448</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>27.81859606077356</v>
+        <v>27.81859606077355</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>36.12950457513199</v>
+        <v>36.12950457513198</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>33.31455724878977</v>
+        <v>33.31455724878976</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28143,7 +28143,7 @@
         <v>3475</v>
       </c>
       <c r="B3475">
-        <v>28.99612618701098</v>
+        <v>28.99612618701097</v>
       </c>
     </row>
     <row r="3476" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>52.45531985480089</v>
+        <v>52.45531985480088</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>47.07160487459198</v>
+        <v>47.07160487459197</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>54.41948195590923</v>
+        <v>54.41948195590922</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>55.86871824208958</v>
+        <v>55.86871824208957</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>31.03739527839112</v>
+        <v>31.03739527839111</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>47.8948414221917</v>
+        <v>47.89484142219169</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>41.46193212357517</v>
+        <v>41.46193212357516</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>63.60608673378776</v>
+        <v>63.60608673378775</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>63.87395366312423</v>
+        <v>63.87395366312422</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29495,7 +29495,7 @@
         <v>3644</v>
       </c>
       <c r="B3644">
-        <v>30.8032315185007</v>
+        <v>30.80323151850069</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>21.16072543288058</v>
+        <v>21.16072543288057</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>18.67603986000583</v>
+        <v>18.67603986000582</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>39.04409605461907</v>
+        <v>39.04409605461906</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30183,7 +30183,7 @@
         <v>3730</v>
       </c>
       <c r="B3730">
-        <v>29.46301765870237</v>
+        <v>29.46301765870236</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -30239,7 +30239,7 @@
         <v>3737</v>
       </c>
       <c r="B3737">
-        <v>34.60875895551827</v>
+        <v>34.60875895551826</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>56.19256173981037</v>
+        <v>56.19256173981036</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>50.4574545842465</v>
+        <v>50.45745458424649</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>55.66239623087199</v>
+        <v>55.66239623087198</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>62.94609075472241</v>
+        <v>62.9460907547224</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>55.19905091874841</v>
+        <v>55.1990509187484</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>48.57505930292468</v>
+        <v>48.57505930292467</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>24.80881510792928</v>
+        <v>24.80881510792927</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>27.29106819118314</v>
+        <v>27.29106819118313</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>22.66028201639909</v>
+        <v>22.66028201639908</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>6.547089775278989</v>
+        <v>6.547089775278988</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>47.23513851416501</v>
+        <v>47.235138514165</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>29.92401840251667</v>
+        <v>29.92401840251666</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>46.79435967201835</v>
+        <v>46.79435967201834</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>62.82651777094858</v>
+        <v>62.82651777094857</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>46.0479077365479</v>
+        <v>46.04790773654789</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>44.87562358190252</v>
+        <v>44.87562358190251</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>83.98829825956834</v>
+        <v>83.98829825956832</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>77.84113322364662</v>
+        <v>77.84113322364661</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>62.85729023000802</v>
+        <v>62.85729023000801</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>59.35186753657967</v>
+        <v>59.35186753657966</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>59.70032900154801</v>
+        <v>59.700329001548</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>56.9489780905953</v>
+        <v>56.94897809059529</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>55.33122595718467</v>
+        <v>55.33122595718466</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>61.19880122222347</v>
+        <v>61.19880122222346</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>60.82953171351017</v>
+        <v>60.82953171351016</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>35.85431086982899</v>
+        <v>35.85431086982898</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>46.3049310374539</v>
+        <v>46.30493103745389</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>57.59607894395955</v>
+        <v>57.59607894395954</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>62.91854207708824</v>
+        <v>62.91854207708823</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>61.23690045724944</v>
+        <v>61.23690045724943</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>64.05858841748088</v>
+        <v>64.05858841748086</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33271,7 +33271,7 @@
         <v>4116</v>
       </c>
       <c r="B4116">
-        <v>66.75161819173998</v>
+        <v>66.75161819173996</v>
       </c>
     </row>
     <row r="4117" spans="1:2">
@@ -33407,7 +33407,7 @@
         <v>4133</v>
       </c>
       <c r="B4133">
-        <v>34.10936590563934</v>
+        <v>34.10936590563933</v>
       </c>
     </row>
     <row r="4134" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>49.04866210140141</v>
+        <v>49.0486621014014</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>48.94696645098593</v>
+        <v>48.94696645098592</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>53.20177179027134</v>
+        <v>53.20177179027133</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33615,7 +33615,7 @@
         <v>4159</v>
       </c>
       <c r="B4159">
-        <v>47.22488102781186</v>
+        <v>47.22488102781185</v>
       </c>
     </row>
     <row r="4160" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>55.79251977203763</v>
+        <v>55.79251977203762</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>62.21282701599172</v>
+        <v>62.21282701599171</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>39.53586925749281</v>
+        <v>39.5358692574928</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>64.85075943498249</v>
+        <v>64.85075943498248</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>74.04263949155693</v>
+        <v>74.04263949155691</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>46.59008915807139</v>
+        <v>46.59008915807138</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34095,7 +34095,7 @@
         <v>4219</v>
       </c>
       <c r="B4219">
-        <v>37.71941495986979</v>
+        <v>37.71941495986978</v>
       </c>
     </row>
     <row r="4220" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>33.85703174135192</v>
+        <v>33.85703174135191</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>58.57229857374049</v>
+        <v>58.57229857374048</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>43.98908368995195</v>
+        <v>43.98908368995194</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>50.42463062791643</v>
+        <v>50.42463062791642</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>50.15471220130933</v>
+        <v>50.15471220130932</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>51.22207692411395</v>
+        <v>51.22207692411394</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34471,7 +34471,7 @@
         <v>4266</v>
       </c>
       <c r="B4266">
-        <v>41.07214764215558</v>
+        <v>41.07214764215557</v>
       </c>
     </row>
     <row r="4267" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>46.57748710340895</v>
+        <v>46.57748710340894</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>52.0655353733813</v>
+        <v>52.06553537338129</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>41.70664644085739</v>
+        <v>41.70664644085738</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>61.77409967111569</v>
+        <v>61.77409967111568</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>66.66486916429622</v>
+        <v>66.66486916429621</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>48.13926266843526</v>
+        <v>48.13926266843525</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35319,7 +35319,7 @@
         <v>4372</v>
       </c>
       <c r="B4372">
-        <v>40.3054738050175</v>
+        <v>40.30547380501749</v>
       </c>
     </row>
     <row r="4373" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>43.03132753560667</v>
+        <v>43.03132753560666</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>49.43610201451171</v>
+        <v>49.4361020145117</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>54.66624777046208</v>
+        <v>54.66624777046207</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>71.99202143404349</v>
+        <v>71.99202143404348</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>74.32017776516922</v>
+        <v>74.32017776516921</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>65.47734531564045</v>
+        <v>65.47734531564043</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>64.39239633051615</v>
+        <v>64.39239633051614</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35927,7 +35927,7 @@
         <v>4448</v>
       </c>
       <c r="B4448">
-        <v>50.95420999477748</v>
+        <v>50.95420999477747</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>60.01420808395431</v>
+        <v>60.0142080839543</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>72.86566620029296</v>
+        <v>72.86566620029295</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36007,7 +36007,7 @@
         <v>4458</v>
       </c>
       <c r="B4458">
-        <v>72.13972923752881</v>
+        <v>72.1397292375288</v>
       </c>
     </row>
     <row r="4459" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>53.991305168425</v>
+        <v>53.99130516842499</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>40.13725102882589</v>
+        <v>40.13725102882588</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>48.03463630763316</v>
+        <v>48.03463630763315</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>57.55065293296704</v>
+        <v>57.55065293296703</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>71.65293824231232</v>
+        <v>71.6529382423123</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36223,7 +36223,7 @@
         <v>4485</v>
       </c>
       <c r="B4485">
-        <v>50.66641423481204</v>
+        <v>50.66641423481203</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>55.94784742252814</v>
+        <v>55.94784742252813</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>69.78842029434884</v>
+        <v>69.78842029434882</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>86.43426914823593</v>
+        <v>86.43426914823591</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>80.74546721678055</v>
+        <v>80.74546721678054</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>67.09744201736036</v>
+        <v>67.09744201736035</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>63.42555497397237</v>
+        <v>63.42555497397236</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>70.99792447090421</v>
+        <v>70.9979244709042</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>52.21822538452386</v>
+        <v>52.21822538452385</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>50.4961399613498</v>
+        <v>50.49613996134979</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>50.28952487909355</v>
+        <v>50.28952487909354</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>34.96777097787842</v>
+        <v>34.96777097787841</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36887,7 +36887,7 @@
         <v>4568</v>
       </c>
       <c r="B4568">
-        <v>38.12707677464772</v>
+        <v>38.12707677464771</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>52.08311963570098</v>
+        <v>52.08311963570097</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>48.58531678927783</v>
+        <v>48.58531678927782</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>52.41956518808421</v>
+        <v>52.4195651880842</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>48.02994717101458</v>
+        <v>48.02994717101457</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37183,7 +37183,7 @@
         <v>4605</v>
       </c>
       <c r="B4605">
-        <v>37.70915747351664</v>
+        <v>37.70915747351663</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>67.78821045548516</v>
+        <v>67.78821045548514</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>47.77263079906992</v>
+        <v>47.77263079906991</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>62.34529512546665</v>
+        <v>62.34529512546664</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>56.64623570765813</v>
+        <v>56.64623570765812</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>36.20101390856536</v>
+        <v>36.20101390856535</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>43.64032915394495</v>
+        <v>43.64032915394494</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>49.8335063429365</v>
+        <v>49.83350634293649</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>49.09203661512329</v>
+        <v>49.09203661512328</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>60.02153485992084</v>
+        <v>60.02153485992083</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>53.52004693825756</v>
+        <v>53.52004693825755</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>56.73738080068181</v>
+        <v>56.7373808006818</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>57.77719684585226</v>
+        <v>57.77719684585225</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>46.32017073146429</v>
+        <v>46.32017073146428</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>69.76790532164254</v>
+        <v>69.76790532164253</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>67.46172931841642</v>
+        <v>67.4617293184164</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38527,7 +38527,7 @@
         <v>4773</v>
       </c>
       <c r="B4773">
-        <v>56.75525813404015</v>
+        <v>56.75525813404014</v>
       </c>
     </row>
     <row r="4774" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>73.92541107609239</v>
+        <v>73.92541107609237</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>79.78038428646875</v>
+        <v>79.78038428646873</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>71.05419411032719</v>
+        <v>71.05419411032717</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>50.32029733815299</v>
+        <v>50.32029733815298</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>77.40328509188657</v>
+        <v>77.40328509188656</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>86.16464379266749</v>
+        <v>86.16464379266748</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>87.1555169743815</v>
+        <v>87.15551697438148</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>81.9839854261634</v>
+        <v>81.98398542616339</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>69.91825076447581</v>
+        <v>69.9182507644758</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>68.69233460975541</v>
+        <v>68.69233460975539</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>81.63435167704041</v>
+        <v>81.6343516770404</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>86.80119408863993</v>
+        <v>86.80119408863992</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>78.51871346503165</v>
+        <v>78.51871346503164</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>75.20173544946255</v>
+        <v>75.20173544946253</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>73.40814069285511</v>
+        <v>73.4081406928551</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>81.61911198303002</v>
+        <v>81.61911198303001</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>80.23347211223918</v>
+        <v>80.23347211223917</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>80.26131386091201</v>
+        <v>80.261313860912</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>56.06009363033544</v>
+        <v>56.06009363033543</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>85.13479216281152</v>
+        <v>85.13479216281151</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>66.69271091296905</v>
+        <v>66.69271091296903</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>72.49874125988896</v>
+        <v>72.49874125988894</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>46.79670424032764</v>
+        <v>46.79670424032763</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>51.73172746034603</v>
+        <v>51.73172746034602</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39951,7 +39951,7 @@
         <v>4951</v>
       </c>
       <c r="B4951">
-        <v>56.8754172598913</v>
+        <v>56.87541725989129</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>63.8279415100544</v>
+        <v>63.82794151005439</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>63.48622067897527</v>
+        <v>63.48622067897526</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>53.59390084000022</v>
+        <v>53.59390084000021</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40143,7 +40143,7 @@
         <v>4975</v>
       </c>
       <c r="B4975">
-        <v>32.45585910551203</v>
+        <v>32.45585910551202</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40151,7 +40151,7 @@
         <v>4976</v>
       </c>
       <c r="B4976">
-        <v>36.3182423240299</v>
+        <v>36.31824232402989</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>41.11288451652951</v>
+        <v>41.1128845165295</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>25.88532364714013</v>
+        <v>25.88532364714012</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>45.07432574611491</v>
+        <v>45.0743257461149</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>47.94085357526153</v>
+        <v>47.94085357526152</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>47.93294065721767</v>
+        <v>47.93294065721766</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>47.8872215751865</v>
+        <v>47.88722157518649</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>37.36509207412822</v>
+        <v>37.36509207412821</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>42.09379328292903</v>
+        <v>42.09379328292902</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40807,7 +40807,7 @@
         <v>5058</v>
       </c>
       <c r="B5058">
-        <v>42.40972386260596</v>
+        <v>42.40972386260595</v>
       </c>
     </row>
     <row r="5059" spans="1:2">
@@ -40919,7 +40919,7 @@
         <v>5072</v>
       </c>
       <c r="B5072">
-        <v>41.57124762099585</v>
+        <v>41.57124762099584</v>
       </c>
     </row>
     <row r="5073" spans="1:2">
@@ -40999,7 +40999,7 @@
         <v>5082</v>
       </c>
       <c r="B5082">
-        <v>55.21927282041604</v>
+        <v>55.21927282041603</v>
       </c>
     </row>
     <row r="5083" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>61.27998189993266</v>
+        <v>61.27998189993265</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41207,7 +41207,7 @@
         <v>5108</v>
       </c>
       <c r="B5108">
-        <v>50.65615674845889</v>
+        <v>50.65615674845888</v>
       </c>
     </row>
     <row r="5109" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>46.32515293912153</v>
+        <v>46.32515293912152</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>41.41591997050534</v>
+        <v>41.41591997050533</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>65.01898221117411</v>
+        <v>65.01898221117409</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41575,7 +41575,7 @@
         <v>5154</v>
       </c>
       <c r="B5154">
-        <v>60.2129102481667</v>
+        <v>60.21291024816669</v>
       </c>
     </row>
     <row r="5155" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>50.90585327339836</v>
+        <v>50.90585327339835</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>42.80185291233484</v>
+        <v>42.80185291233483</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42071,7 +42071,7 @@
         <v>5216</v>
       </c>
       <c r="B5216">
-        <v>8.145733676968897</v>
+        <v>8.145733676968895</v>
       </c>
     </row>
     <row r="5217" spans="1:2">
@@ -42255,7 +42255,7 @@
         <v>5239</v>
       </c>
       <c r="B5239">
-        <v>11.78664311157039</v>
+        <v>11.78664311157038</v>
       </c>
     </row>
     <row r="5240" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>31.13821171569062</v>
+        <v>31.13821171569061</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>33.58711331474482</v>
+        <v>33.58711331474481</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>3.479368678091358</v>
+        <v>3.479368678091357</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>5.42559483163362</v>
+        <v>5.425594831633619</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>32.11443134547156</v>
+        <v>32.11443134547155</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>31.54821809877784</v>
+        <v>31.54821809877783</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>38.96525994521917</v>
+        <v>38.96525994521916</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>8.184184597241265</v>
+        <v>8.184184597241263</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>54.1035513762323</v>
+        <v>54.10355137623229</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42935,7 +42935,7 @@
         <v>5324</v>
       </c>
       <c r="B5324">
-        <v>43.43869627934594</v>
+        <v>43.43869627934593</v>
       </c>
     </row>
     <row r="5325" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>38.6185569064828</v>
+        <v>38.61855690648279</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>46.03735717915609</v>
+        <v>46.03735717915608</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>66.35626536058582</v>
+        <v>66.35626536058581</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>56.90355207960279</v>
+        <v>56.90355207960278</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>47.91242568451138</v>
+        <v>47.91242568451137</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>53.39754324409712</v>
+        <v>53.39754324409711</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>62.9006647437299</v>
+        <v>62.90066474372989</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>75.70112849934148</v>
+        <v>75.70112849934146</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>21.19170304166709</v>
+        <v>21.19170304166708</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>29.38535383345711</v>
+        <v>29.3853538334571</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43887,7 +43887,7 @@
         <v>5443</v>
       </c>
       <c r="B5443">
-        <v>35.19959016945954</v>
+        <v>35.19959016945953</v>
       </c>
     </row>
     <row r="5444" spans="1:2">
@@ -44063,7 +44063,7 @@
         <v>5465</v>
       </c>
       <c r="B5465">
-        <v>28.75785943257931</v>
+        <v>28.7578594325793</v>
       </c>
     </row>
     <row r="5466" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>27.25560659550512</v>
+        <v>27.25560659550511</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44151,7 +44151,7 @@
         <v>5476</v>
       </c>
       <c r="B5476">
-        <v>28.24835543186656</v>
+        <v>28.24835543186655</v>
       </c>
     </row>
     <row r="5477" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>57.01257450598481</v>
+        <v>57.0125745059848</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>56.1263276850729</v>
+        <v>56.12632768507289</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>58.29710486843749</v>
+        <v>58.29710486843748</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>62.22806671000211</v>
+        <v>62.2280667100021</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>64.25201530299736</v>
+        <v>64.25201530299735</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>50.68165392882243</v>
+        <v>50.68165392882242</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>47.80545475539999</v>
+        <v>47.80545475539998</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>35.84669102282379</v>
+        <v>35.84669102282378</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>25.39355044426639</v>
+        <v>25.39355044426638</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>32.18330303955698</v>
+        <v>32.18330303955697</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45415,7 +45415,7 @@
         <v>5634</v>
       </c>
       <c r="B5634">
-        <v>33.70697936955731</v>
+        <v>33.7069793695573</v>
       </c>
     </row>
     <row r="5635" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>34.6366007041911</v>
+        <v>34.63660070419109</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>34.79456599402956</v>
+        <v>34.79456599402955</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45751,7 +45751,7 @@
         <v>5676</v>
       </c>
       <c r="B5676">
-        <v>41.11815979522541</v>
+        <v>41.1181597952254</v>
       </c>
     </row>
     <row r="5677" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>45.20210471897126</v>
+        <v>45.20210471897125</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45935,7 +45935,7 @@
         <v>5699</v>
       </c>
       <c r="B5699">
-        <v>59.24724117577757</v>
+        <v>59.24724117577756</v>
       </c>
     </row>
     <row r="5700" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>61.32101184534525</v>
+        <v>61.32101184534524</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>45.71908203116987</v>
+        <v>45.71908203116986</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>63.9908890075501</v>
+        <v>63.99088900755009</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>29.22961588351248</v>
+        <v>29.22961588351247</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>58.69450919686227</v>
+        <v>58.69450919686226</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>60.91569459887661</v>
+        <v>60.9156945988766</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>52.70706787701099</v>
+        <v>52.70706787701098</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>49.98150721746048</v>
+        <v>49.98150721746047</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>47.17388666708479</v>
+        <v>47.17388666708478</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>55.00796860154121</v>
+        <v>55.0079686015412</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>47.53788089710218</v>
+        <v>47.53788089710217</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>45.01571153838264</v>
+        <v>45.01571153838263</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>41.73683275783951</v>
+        <v>41.7368327578395</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>47.90216819815823</v>
+        <v>47.90216819815822</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>58.78096515326737</v>
+        <v>58.78096515326736</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>56.37836877832166</v>
+        <v>56.37836877832165</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>46.0479077365479</v>
+        <v>46.04790773654789</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>61.68764371471059</v>
+        <v>61.68764371471058</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>65.09518068122605</v>
+        <v>65.09518068122604</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>66.56024280349412</v>
+        <v>66.56024280349411</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>47.67034900657711</v>
+        <v>47.6703490065771</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48407,7 +48407,7 @@
         <v>6008</v>
       </c>
       <c r="B6008">
-        <v>38.8072946553807</v>
+        <v>38.80729465538069</v>
       </c>
     </row>
     <row r="6009" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>43.67315311027502</v>
+        <v>43.67315311027501</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48511,7 +48511,7 @@
         <v>6021</v>
       </c>
       <c r="B6021">
-        <v>35.65824634496455</v>
+        <v>35.65824634496454</v>
       </c>
     </row>
     <row r="6022" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>50.05008584050723</v>
+        <v>50.05008584050722</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>41.72159306382912</v>
+        <v>41.72159306382911</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>9.231151575755057</v>
+        <v>9.231151575755051</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>35.71686055269682</v>
+        <v>35.71686055269681</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>30.14440782359</v>
+        <v>30.14440782358999</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>35.19226339349301</v>
+        <v>35.192263393493</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>25.33030571412328</v>
+        <v>25.33030571412327</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>36.86100988763071</v>
+        <v>36.8610098876307</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>32.47373643887037</v>
+        <v>32.47373643887036</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>45.98929352881563</v>
+        <v>45.98929352881562</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50607,7 +50607,7 @@
         <v>6283</v>
       </c>
       <c r="B6283">
-        <v>35.78309460743428</v>
+        <v>35.78309460743427</v>
       </c>
     </row>
     <row r="6284" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>30.57639453457682</v>
+        <v>30.57639453457681</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>53.83861515728244</v>
+        <v>53.83861515728243</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>56.72477874601937</v>
+        <v>56.72477874601936</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>57.9073203870179</v>
+        <v>57.90732038701789</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>16.72351267913235</v>
+        <v>16.72351267913234</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>7.443213090193785</v>
+        <v>7.443213090193784</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>7.232524320500144</v>
+        <v>7.232524320500143</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>2.664464140120781</v>
+        <v>2.66446414012078</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>7.141261999061001</v>
+        <v>7.141261999061</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -52335,7 +52335,7 @@
         <v>6499</v>
       </c>
       <c r="B6499">
-        <v>21.49661415029035</v>
+        <v>21.49661415029034</v>
       </c>
     </row>
     <row r="6500" spans="1:2">
@@ -52855,7 +52855,7 @@
         <v>6564</v>
       </c>
       <c r="B6564">
-        <v>7.810636251363514</v>
+        <v>7.810636251363513</v>
       </c>
     </row>
     <row r="6565" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>31.85271890794698</v>
+        <v>31.85271890794697</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53183,7 +53183,7 @@
         <v>6605</v>
       </c>
       <c r="B6605">
-        <v>0.5824786893394238</v>
+        <v>0.5824786893394237</v>
       </c>
     </row>
     <row r="6606" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>41.04137518309614</v>
+        <v>41.04137518309613</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>39.85414440547903</v>
+        <v>39.85414440547902</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>5.582710215459967</v>
+        <v>5.582710215459966</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>24.62368213280691</v>
+        <v>24.6236821328069</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>21.84510492236256</v>
+        <v>21.84510492236255</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>31.15608904904896</v>
+        <v>31.15608904904895</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>35.58937465087913</v>
+        <v>35.58937465087912</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53807,7 +53807,7 @@
         <v>6683</v>
       </c>
       <c r="B6683">
-        <v>4.36520519954914</v>
+        <v>4.365205199549139</v>
       </c>
     </row>
     <row r="6684" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>9.832972953646127</v>
+        <v>9.832972953646124</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53847,7 +53847,7 @@
         <v>6688</v>
       </c>
       <c r="B6688">
-        <v>8.653449944345811</v>
+        <v>8.653449944345809</v>
       </c>
     </row>
     <row r="6689" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>7.491950803923166</v>
+        <v>7.491950803923165</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>4.809237130224944</v>
+        <v>4.809237130224943</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>32.43036192514849</v>
+        <v>32.43036192514848</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>45.06699897014838</v>
+        <v>45.06699897014837</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>41.67059870310205</v>
+        <v>41.67059870310204</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>22.71016270717925</v>
+        <v>22.71016270717924</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>2.128258437075597</v>
+        <v>2.128258437075596</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>2.637442990356205</v>
+        <v>2.637442990356204</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>15.82645153689384</v>
+        <v>15.82645153689383</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>14.98061921221333</v>
+        <v>14.98061921221332</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>30.6159591247961</v>
+        <v>30.61595912479609</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>31.73314592417315</v>
+        <v>31.73314592417314</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57079,7 +57079,7 @@
         <v>7092</v>
       </c>
       <c r="B7092">
-        <v>37.87239804205101</v>
+        <v>37.872398042051</v>
       </c>
     </row>
     <row r="7093" spans="1:2">
@@ -57231,7 +57231,7 @@
         <v>7111</v>
       </c>
       <c r="B7111">
-        <v>13.01443492093823</v>
+        <v>13.01443492093822</v>
       </c>
     </row>
     <row r="7112" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>30.38033000971238</v>
+        <v>30.38033000971237</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>44.36890375605705</v>
+        <v>44.36890375605704</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>29.58141835832155</v>
+        <v>29.58141835832154</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>29.32791190987949</v>
+        <v>29.32791190987948</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>2.102268897367109</v>
+        <v>2.102268897367108</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57647,7 +57647,7 @@
         <v>7163</v>
       </c>
       <c r="B7163">
-        <v>5.339490560474916</v>
+        <v>5.339490560474915</v>
       </c>
     </row>
     <row r="7164" spans="1:2">
@@ -57663,7 +57663,7 @@
         <v>7165</v>
       </c>
       <c r="B7165">
-        <v>6.15625023812022</v>
+        <v>6.156250238120219</v>
       </c>
     </row>
     <row r="7166" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>6.357795191407627</v>
+        <v>6.357795191407626</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>4.350610261823805</v>
+        <v>4.350610261823804</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>1.632464299551426</v>
+        <v>1.632464299551425</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>3.665703244472241</v>
+        <v>3.66570324447224</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59031,7 +59031,7 @@
         <v>7336</v>
       </c>
       <c r="B7336">
-        <v>3.762328765918887</v>
+        <v>3.762328765918886</v>
       </c>
     </row>
     <row r="7337" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>1.077736506862845</v>
+        <v>1.077736506862844</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59391,7 +59391,7 @@
         <v>7381</v>
       </c>
       <c r="B7381">
-        <v>5.258485725388921</v>
+        <v>5.25848572538892</v>
       </c>
     </row>
     <row r="7382" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>4.608249011910994</v>
+        <v>4.608249011910993</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>4.063400643935687</v>
+        <v>4.063400643935686</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>9.982732254402077</v>
+        <v>9.982732254402071</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>24.79225659424491</v>
+        <v>24.7922565942449</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65599,7 +65599,7 @@
         <v>8157</v>
       </c>
       <c r="B8157">
-        <v>7.475275061823337</v>
+        <v>7.475275061823336</v>
       </c>
     </row>
     <row r="8158" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>20.32670387105813</v>
+        <v>20.32670387105812</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
